--- a/openpyxl/insDelRowsCols.xlsx
+++ b/openpyxl/insDelRowsCols.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,48 +427,57 @@
           <t>R1C1</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>R1C3</t>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>R1C2</t>
         </is>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>R2C1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>R2C2</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R2C1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>R2C3</t>
+          <t>R3C1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>R3C2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R3C1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>R3C3</t>
+          <t>R4C1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>R4C2</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>R5C1</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>R5C3</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>R5C2</t>
         </is>
       </c>
     </row>
